--- a/documentacao/ProductBacklog.xlsx
+++ b/documentacao/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,30 +350,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -383,13 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFF9797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,118 +530,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,6 +617,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9797"/>
+      <color rgb="FFFF8181"/>
+      <color rgb="FFFF6D6D"/>
+      <color rgb="FFFF6161"/>
+      <color rgb="FFFF4B4B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -944,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,58 +917,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1019,1121 +977,1121 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="19">
         <v>5</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="19">
         <v>3</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="19">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="19">
         <v>3</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="19">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="19">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="19">
         <v>4</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="19">
         <v>8</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="19">
         <v>5</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="19">
         <v>8</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="19">
         <v>6</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="19">
         <v>5</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="19">
         <v>7</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="20">
         <v>8</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="20">
         <v>8</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="23">
         <v>5</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="23">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="23">
         <v>5</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="23">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="41">
-        <v>13</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="C22" s="23">
+        <v>13</v>
+      </c>
+      <c r="D22" s="23">
         <v>11</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="41">
-        <v>13</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="C23" s="23">
+        <v>13</v>
+      </c>
+      <c r="D23" s="23">
         <v>12</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="23">
         <v>5</v>
       </c>
-      <c r="D24" s="41">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="23">
+        <v>13</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="23">
         <v>5</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="23">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="23">
         <v>5</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="23">
         <v>15</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="23">
         <v>5</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="23">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="23">
         <v>5</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="23">
         <v>17</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="23">
         <v>5</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="23">
         <v>18</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="23">
         <v>5</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="23">
         <v>19</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="23">
         <v>3</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="23">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="41">
-        <v>13</v>
-      </c>
-      <c r="D32" s="41">
+      <c r="C32" s="23">
+        <v>13</v>
+      </c>
+      <c r="D32" s="23">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="23">
         <v>3</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="23">
         <v>22</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="41">
-        <v>13</v>
-      </c>
-      <c r="D34" s="41">
+      <c r="C34" s="23">
+        <v>13</v>
+      </c>
+      <c r="D34" s="23">
         <v>23</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="41">
-        <v>13</v>
-      </c>
-      <c r="D35" s="41">
+      <c r="C35" s="23">
+        <v>13</v>
+      </c>
+      <c r="D35" s="23">
         <v>24</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="23">
         <v>8</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="23">
         <v>25</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="23">
         <v>21</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="23">
         <v>26</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="41">
-        <v>13</v>
-      </c>
-      <c r="D38" s="41">
-        <v>27</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="23">
+        <v>13</v>
+      </c>
+      <c r="D38" s="23">
+        <v>27</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="41">
-        <v>13</v>
-      </c>
-      <c r="D39" s="41">
+      <c r="C39" s="23">
+        <v>13</v>
+      </c>
+      <c r="D39" s="23">
         <v>28</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="41">
-        <v>13</v>
-      </c>
-      <c r="D40" s="41">
+      <c r="C40" s="23">
+        <v>13</v>
+      </c>
+      <c r="D40" s="23">
         <v>29</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="23">
         <v>5</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="23">
         <v>30</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="41">
-        <v>13</v>
-      </c>
-      <c r="D42" s="41">
+      <c r="C42" s="23">
+        <v>13</v>
+      </c>
+      <c r="D42" s="23">
         <v>31</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="41">
-        <v>13</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="C43" s="23">
+        <v>13</v>
+      </c>
+      <c r="D43" s="23">
         <v>32</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="23">
         <v>5</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="23">
         <v>33</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="23">
         <v>21</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="23">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="23">
         <v>21</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="23">
         <v>35</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="27">
         <v>3</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="23">
         <v>36</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="27">
         <v>3</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="23">
         <v>37</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="29">
         <v>5</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="23">
         <v>38</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="41">
-        <v>13</v>
-      </c>
-      <c r="D50" s="41">
+      <c r="C50" s="23">
+        <v>13</v>
+      </c>
+      <c r="D50" s="23">
         <v>39</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="28" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="18">
-        <v>13</v>
-      </c>
-      <c r="D53" s="44">
+      <c r="C53" s="23">
+        <v>13</v>
+      </c>
+      <c r="D53" s="31">
         <v>40</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="31">
         <v>21</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="31">
         <v>41</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="23">
         <v>8</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="31">
         <v>42</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="23">
         <v>8</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="31">
         <v>43</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="23">
         <v>5</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="31">
         <v>44</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="23">
         <v>21</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="31">
         <v>45</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="23">
         <v>21</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="31">
         <v>46</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="23">
         <v>21</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="31">
         <v>47</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="18">
-        <v>13</v>
-      </c>
-      <c r="D61" s="44">
+      <c r="C61" s="23">
+        <v>13</v>
+      </c>
+      <c r="D61" s="31">
         <v>48</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="18">
-        <v>13</v>
-      </c>
-      <c r="D62" s="44">
+      <c r="C62" s="23">
+        <v>13</v>
+      </c>
+      <c r="D62" s="31">
         <v>49</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="18">
-        <v>13</v>
-      </c>
-      <c r="D63" s="44">
+      <c r="C63" s="23">
+        <v>13</v>
+      </c>
+      <c r="D63" s="31">
         <v>50</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="23">
         <v>8</v>
       </c>
-      <c r="D64" s="44">
+      <c r="D64" s="31">
         <v>51</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="23">
         <v>8</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="31">
         <v>52</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="31">
         <v>21</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="31">
         <v>53</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="31">
         <v>21</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="31">
         <v>54</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="31">
         <v>21</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="31">
         <v>55</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="31">
         <v>21</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="31">
         <v>56</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="31">
         <v>21</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="31">
         <v>57</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="19">
-        <v>13</v>
-      </c>
-      <c r="D71" s="44">
+      <c r="C71" s="31">
+        <v>13</v>
+      </c>
+      <c r="D71" s="31">
         <v>58</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="19">
-        <v>13</v>
-      </c>
-      <c r="D72" s="44">
+      <c r="C72" s="31">
+        <v>13</v>
+      </c>
+      <c r="D72" s="31">
         <v>59</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="18">
-        <v>13</v>
-      </c>
-      <c r="D73" s="44">
+      <c r="C73" s="23">
+        <v>13</v>
+      </c>
+      <c r="D73" s="31">
         <v>60</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="18">
-        <v>13</v>
-      </c>
-      <c r="D74" s="44">
+      <c r="C74" s="23">
+        <v>13</v>
+      </c>
+      <c r="D74" s="31">
         <v>61</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="23">
         <v>5</v>
       </c>
-      <c r="D75" s="44">
+      <c r="D75" s="31">
         <v>62</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="18">
-        <v>13</v>
-      </c>
-      <c r="D76" s="44">
+      <c r="C76" s="23">
+        <v>13</v>
+      </c>
+      <c r="D76" s="31">
         <v>63</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="23">
         <v>5</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="31">
         <v>64</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="23">
         <v>5</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="31">
         <v>65</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="23">
         <v>5</v>
       </c>
-      <c r="D79" s="44">
+      <c r="D79" s="31">
         <v>66</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="18">
-        <v>13</v>
-      </c>
-      <c r="D80" s="44">
+      <c r="C80" s="23">
+        <v>13</v>
+      </c>
+      <c r="D80" s="31">
         <v>67</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="23">
         <v>8</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="31">
         <v>68</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="18">
-        <v>13</v>
-      </c>
-      <c r="D82" s="44">
+      <c r="C82" s="23">
+        <v>13</v>
+      </c>
+      <c r="D82" s="31">
         <v>69</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="23">
         <v>5</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="31">
         <v>70</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="18">
-        <v>13</v>
-      </c>
-      <c r="D84" s="44">
+      <c r="C84" s="23">
+        <v>13</v>
+      </c>
+      <c r="D84" s="31">
         <v>71</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="23">
         <v>8</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="31">
         <v>72</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="23">
         <v>8</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="31">
         <v>73</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="23">
         <v>21</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="31">
         <v>74</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="23">
         <v>21</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="31">
         <v>75</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="23">
         <v>21</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="31">
         <v>76</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="31" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2145,15 +2103,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2356,6 +2305,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2363,14 +2321,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8F4E9-CA64-42D3-8772-29142F0497EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2389,6 +2339,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
   <ds:schemaRefs>

--- a/documentacao/ProductBacklog.xlsx
+++ b/documentacao/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,7 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9797"/>
+        <fgColor rgb="FFFF6161"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,62 +559,62 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,7 +909,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F54" sqref="F54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,16 +983,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1564,16 +1570,16 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2103,6 +2109,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2305,15 +2320,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2321,6 +2327,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8F4E9-CA64-42D3-8772-29142F0497EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2339,14 +2353,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
   <ds:schemaRefs>

--- a/documentacao/ProductBacklog.xlsx
+++ b/documentacao/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\blind-market\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -536,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,14 +592,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -613,9 +611,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +912,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:G54"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,13 +1003,13 @@
       <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="29">
         <v>5</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1014,13 +1017,13 @@
       <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="29">
         <v>2</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1028,13 +1031,13 @@
       <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="29">
         <v>3</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="29">
         <v>3</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1042,13 +1045,13 @@
       <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="29">
         <v>5</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="29">
         <v>4</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1056,13 +1059,13 @@
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="29">
         <v>5</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1070,13 +1073,13 @@
       <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="29">
         <v>8</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="29">
         <v>6</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1084,13 +1087,13 @@
       <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="29">
         <v>5</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="29">
         <v>7</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1124,424 +1127,424 @@
       <c r="D19" s="20">
         <v>8</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>5</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>9</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>5</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>10</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="23">
-        <v>13</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22">
+        <v>13</v>
+      </c>
+      <c r="D22" s="22">
         <v>11</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="23">
-        <v>13</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="22">
+        <v>13</v>
+      </c>
+      <c r="D23" s="22">
         <v>12</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>5</v>
       </c>
-      <c r="D24" s="23">
-        <v>13</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="22">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>5</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>14</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>5</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>15</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>5</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>16</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>5</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>17</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>18</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>5</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>19</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>3</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>20</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="23">
-        <v>13</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="C32" s="22">
+        <v>13</v>
+      </c>
+      <c r="D32" s="22">
         <v>21</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>3</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>22</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="23">
-        <v>13</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="22">
+        <v>13</v>
+      </c>
+      <c r="D34" s="22">
         <v>23</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="23">
-        <v>13</v>
-      </c>
-      <c r="D35" s="23">
+      <c r="C35" s="22">
+        <v>13</v>
+      </c>
+      <c r="D35" s="22">
         <v>24</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>8</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>25</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>21</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>26</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="23">
-        <v>13</v>
-      </c>
-      <c r="D38" s="23">
-        <v>27</v>
-      </c>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="22">
+        <v>13</v>
+      </c>
+      <c r="D38" s="22">
+        <v>27</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="23">
-        <v>13</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="22">
+        <v>13</v>
+      </c>
+      <c r="D39" s="22">
         <v>28</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="23">
-        <v>13</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="C40" s="22">
+        <v>13</v>
+      </c>
+      <c r="D40" s="22">
         <v>29</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>5</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>30</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="23">
-        <v>13</v>
-      </c>
-      <c r="D42" s="23">
+      <c r="C42" s="22">
+        <v>13</v>
+      </c>
+      <c r="D42" s="22">
         <v>31</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="23">
-        <v>13</v>
-      </c>
-      <c r="D43" s="23">
+      <c r="C43" s="22">
+        <v>13</v>
+      </c>
+      <c r="D43" s="22">
         <v>32</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>5</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="22">
         <v>33</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>21</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="22">
         <v>34</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>21</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <v>35</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="25">
         <v>3</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <v>36</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="25">
         <v>3</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="22">
         <v>37</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>5</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <v>38</v>
       </c>
       <c r="E49" s="30" t="s">
@@ -1549,16 +1552,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="23">
-        <v>13</v>
-      </c>
-      <c r="D50" s="23">
+      <c r="C50" s="22">
+        <v>13</v>
+      </c>
+      <c r="D50" s="22">
         <v>39</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1584,520 +1587,520 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="23">
-        <v>13</v>
-      </c>
-      <c r="D53" s="31">
+      <c r="C53" s="22">
+        <v>13</v>
+      </c>
+      <c r="D53" s="28">
         <v>40</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="28">
         <v>21</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="28">
         <v>41</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>8</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="28">
         <v>42</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>8</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="28">
         <v>43</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>5</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="28">
         <v>44</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <v>21</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="28">
         <v>45</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="22">
         <v>21</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="28">
         <v>46</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="22">
         <v>21</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="28">
         <v>47</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="23">
-        <v>13</v>
-      </c>
-      <c r="D61" s="31">
+      <c r="C61" s="22">
+        <v>13</v>
+      </c>
+      <c r="D61" s="28">
         <v>48</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="23">
-        <v>13</v>
-      </c>
-      <c r="D62" s="31">
+      <c r="C62" s="22">
+        <v>13</v>
+      </c>
+      <c r="D62" s="28">
         <v>49</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="23">
-        <v>13</v>
-      </c>
-      <c r="D63" s="31">
+      <c r="C63" s="22">
+        <v>13</v>
+      </c>
+      <c r="D63" s="28">
         <v>50</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>8</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="28">
         <v>51</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>8</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="28">
         <v>52</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="28">
         <v>21</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="28">
         <v>53</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="28">
         <v>21</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="28">
         <v>54</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="28">
         <v>21</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="28">
         <v>55</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="28">
         <v>21</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="28">
         <v>56</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="28">
         <v>21</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="28">
         <v>57</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="31">
-        <v>13</v>
-      </c>
-      <c r="D71" s="31">
+      <c r="C71" s="28">
+        <v>13</v>
+      </c>
+      <c r="D71" s="28">
         <v>58</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="31">
-        <v>13</v>
-      </c>
-      <c r="D72" s="31">
+      <c r="C72" s="28">
+        <v>13</v>
+      </c>
+      <c r="D72" s="28">
         <v>59</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="23">
-        <v>13</v>
-      </c>
-      <c r="D73" s="31">
+      <c r="C73" s="22">
+        <v>13</v>
+      </c>
+      <c r="D73" s="28">
         <v>60</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="23">
-        <v>13</v>
-      </c>
-      <c r="D74" s="31">
+      <c r="C74" s="22">
+        <v>13</v>
+      </c>
+      <c r="D74" s="28">
         <v>61</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="22">
         <v>5</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="28">
         <v>62</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="23">
-        <v>13</v>
-      </c>
-      <c r="D76" s="31">
+      <c r="C76" s="22">
+        <v>13</v>
+      </c>
+      <c r="D76" s="28">
         <v>63</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="22">
         <v>5</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="28">
         <v>64</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="22">
         <v>5</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="28">
         <v>65</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="22">
         <v>5</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="28">
         <v>66</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="23">
-        <v>13</v>
-      </c>
-      <c r="D80" s="31">
+      <c r="C80" s="22">
+        <v>13</v>
+      </c>
+      <c r="D80" s="28">
         <v>67</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="22">
         <v>8</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="28">
         <v>68</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="23">
-        <v>13</v>
-      </c>
-      <c r="D82" s="31">
+      <c r="C82" s="22">
+        <v>13</v>
+      </c>
+      <c r="D82" s="28">
         <v>69</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="22">
         <v>5</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="28">
         <v>70</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="23">
-        <v>13</v>
-      </c>
-      <c r="D84" s="31">
+      <c r="C84" s="22">
+        <v>13</v>
+      </c>
+      <c r="D84" s="28">
         <v>71</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="22">
         <v>8</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="28">
         <v>72</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="22">
         <v>8</v>
       </c>
-      <c r="D86" s="31">
+      <c r="D86" s="28">
         <v>73</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="22">
         <v>21</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D87" s="28">
         <v>74</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="22">
         <v>21</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D88" s="28">
         <v>75</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="22">
         <v>21</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D89" s="28">
         <v>76</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2109,15 +2112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2320,6 +2314,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2327,14 +2330,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8F4E9-CA64-42D3-8772-29142F0497EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2353,6 +2348,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
   <ds:schemaRefs>
